--- a/process_data.xlsx
+++ b/process_data.xlsx
@@ -422,7 +422,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T1479"/>
+  <dimension ref="A1:T1478"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -85022,11 +85022,11 @@
     </row>
     <row r="1476" spans="1:20">
       <c r="A1476" t="n">
-        <v>0.0006400000000000001</v>
+        <v>0.00034</v>
       </c>
       <c r="B1476" t="s"/>
       <c r="C1476" t="n">
-        <v>72250</v>
+        <v>71500</v>
       </c>
       <c r="D1476" t="s"/>
       <c r="E1476" t="s"/>
@@ -85052,7 +85052,7 @@
         <v>0</v>
       </c>
       <c r="M1476" t="n">
-        <v>68</v>
+        <v>85</v>
       </c>
       <c r="N1476" t="n">
         <v>0</v>
@@ -85066,7 +85066,9 @@
       <c r="Q1476" t="n">
         <v>0</v>
       </c>
-      <c r="R1476" t="s"/>
+      <c r="R1476" t="n">
+        <v>1694</v>
+      </c>
       <c r="S1476" t="n">
         <v>0</v>
       </c>
@@ -85076,11 +85078,11 @@
     </row>
     <row r="1477" spans="1:20">
       <c r="A1477" t="n">
-        <v>0.00034</v>
+        <v>0.00061</v>
       </c>
       <c r="B1477" t="s"/>
       <c r="C1477" t="n">
-        <v>71500</v>
+        <v>71400</v>
       </c>
       <c r="D1477" t="s"/>
       <c r="E1477" t="s"/>
@@ -85106,13 +85108,13 @@
         <v>0</v>
       </c>
       <c r="M1477" t="n">
-        <v>85</v>
+        <v>102</v>
       </c>
       <c r="N1477" t="n">
         <v>0</v>
       </c>
       <c r="O1477" t="n">
-        <v>1425</v>
+        <v>1512</v>
       </c>
       <c r="P1477" t="n">
         <v>88</v>
@@ -85121,7 +85123,7 @@
         <v>0</v>
       </c>
       <c r="R1477" t="n">
-        <v>1694</v>
+        <v>1674</v>
       </c>
       <c r="S1477" t="n">
         <v>0</v>
@@ -85132,11 +85134,11 @@
     </row>
     <row r="1478" spans="1:20">
       <c r="A1478" t="n">
-        <v>0.00061</v>
+        <v>0.00066</v>
       </c>
       <c r="B1478" t="s"/>
       <c r="C1478" t="n">
-        <v>71400</v>
+        <v>71550</v>
       </c>
       <c r="D1478" t="s"/>
       <c r="E1478" t="s"/>
@@ -85162,13 +85164,13 @@
         <v>0</v>
       </c>
       <c r="M1478" t="n">
-        <v>102</v>
+        <v>85</v>
       </c>
       <c r="N1478" t="n">
         <v>0</v>
       </c>
       <c r="O1478" t="n">
-        <v>1512</v>
+        <v>1378</v>
       </c>
       <c r="P1478" t="n">
         <v>88</v>
@@ -85177,68 +85179,12 @@
         <v>0</v>
       </c>
       <c r="R1478" t="n">
-        <v>1674</v>
+        <v>1705</v>
       </c>
       <c r="S1478" t="n">
         <v>0</v>
       </c>
       <c r="T1478" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1479" spans="1:20">
-      <c r="A1479" t="n">
-        <v>0.00066</v>
-      </c>
-      <c r="B1479" t="s"/>
-      <c r="C1479" t="n">
-        <v>71550</v>
-      </c>
-      <c r="D1479" t="s"/>
-      <c r="E1479" t="s"/>
-      <c r="F1479" t="n">
-        <v>0</v>
-      </c>
-      <c r="G1479" t="n">
-        <v>0</v>
-      </c>
-      <c r="H1479" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1479" t="n">
-        <v>0</v>
-      </c>
-      <c r="J1479" t="n">
-        <v>0</v>
-      </c>
-      <c r="K1479" t="n">
-        <v>0</v>
-      </c>
-      <c r="L1479" t="n">
-        <v>0</v>
-      </c>
-      <c r="M1479" t="n">
-        <v>85</v>
-      </c>
-      <c r="N1479" t="n">
-        <v>0</v>
-      </c>
-      <c r="O1479" t="n">
-        <v>1378</v>
-      </c>
-      <c r="P1479" t="n">
-        <v>88</v>
-      </c>
-      <c r="Q1479" t="n">
-        <v>0</v>
-      </c>
-      <c r="R1479" t="n">
-        <v>1705</v>
-      </c>
-      <c r="S1479" t="n">
-        <v>0</v>
-      </c>
-      <c r="T1479" t="n">
         <v>0</v>
       </c>
     </row>
